--- a/NAV_REFramwork/Data/Config.xlsx
+++ b/NAV_REFramwork/Data/Config.xlsx
@@ -1,28 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/FrameworkTemplates/REFramework/VB/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\GitHub\4-semester-gr6\NAV_REFramwork\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97673000-C574-4D5D-BD18-49CB4115575C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10248" yWindow="17508" windowWidth="21252" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3560" yWindow="1500" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -91,15 +103,15 @@
   </si>
   <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>OrchestratorQueueName</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
@@ -159,18 +171,61 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>ProcessABCQueue</t>
+    <t>Anne Grethe Hansen</t>
+  </si>
+  <si>
+    <t>John Rasmussen</t>
+  </si>
+  <si>
+    <t>Lise Martin</t>
+  </si>
+  <si>
+    <t>Mette T Djørup</t>
+  </si>
+  <si>
+    <t>Martin Hansen</t>
+  </si>
+  <si>
+    <t>Morten Rasmussen</t>
+  </si>
+  <si>
+    <t>Philip Søborg</t>
+  </si>
+  <si>
+    <t>Thomas Søndergaard</t>
+  </si>
+  <si>
+    <t>windowsPath</t>
+  </si>
+  <si>
+    <t>4th semester RPA project/windowsPath</t>
+  </si>
+  <si>
+    <t>4th semester RPA project/Employee URL Links</t>
+  </si>
+  <si>
+    <t>GetData</t>
+  </si>
+  <si>
+    <t>4th semester RPA project</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -211,16 +266,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -239,7 +297,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -538,15 +596,15 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.54296875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -588,23 +646,25 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="29">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1609,7 +1669,7 @@
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1623,12 +1683,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1665,7 +1725,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="29">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1790,7 +1850,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="29">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2773,7 +2833,7 @@
     <row r="987" ht="14.25" customHeight="1"/>
     <row r="988" ht="14.25" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2783,22 +2843,22 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.90625" customWidth="1"/>
+    <col min="2" max="2" width="30.08984375" customWidth="1"/>
+    <col min="3" max="3" width="60.36328125" customWidth="1"/>
+    <col min="4" max="26" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2830,15 +2890,78 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -3830,7 +3953,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NAV_REFramwork/Data/Config.xlsx
+++ b/NAV_REFramwork/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\GitHub\4-semester-gr6\NAV_REFramwork\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97673000-C574-4D5D-BD18-49CB4115575C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121D31F0-290D-44C1-A9F3-FBE031B7186D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="1500" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -169,39 +169,6 @@
   </si>
   <si>
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
-  </si>
-  <si>
-    <t>Anne Grethe Hansen</t>
-  </si>
-  <si>
-    <t>John Rasmussen</t>
-  </si>
-  <si>
-    <t>Lise Martin</t>
-  </si>
-  <si>
-    <t>Mette T Djørup</t>
-  </si>
-  <si>
-    <t>Martin Hansen</t>
-  </si>
-  <si>
-    <t>Morten Rasmussen</t>
-  </si>
-  <si>
-    <t>Philip Søborg</t>
-  </si>
-  <si>
-    <t>Thomas Søndergaard</t>
-  </si>
-  <si>
-    <t>windowsPath</t>
-  </si>
-  <si>
-    <t>4th semester RPA project/windowsPath</t>
-  </si>
-  <si>
-    <t>4th semester RPA project/Employee URL Links</t>
   </si>
   <si>
     <t>GetData</t>
@@ -596,7 +563,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -646,7 +613,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -657,7 +624,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>32</v>
@@ -2843,7 +2810,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2891,76 +2858,40 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>

--- a/NAV_REFramwork/Data/Config.xlsx
+++ b/NAV_REFramwork/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\GitHub\4-semester-gr6\NAV_REFramwork\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REPO\VisualREPO\4-semester-gr6\NAV_REFramwork\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121D31F0-290D-44C1-A9F3-FBE031B7186D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F076D639-2682-49D9-AA08-1CA1936FC59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -171,10 +171,10 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>GetData</t>
-  </si>
-  <si>
     <t>4th semester RPA project</t>
+  </si>
+  <si>
+    <t>IndsigtSletning</t>
   </si>
 </sst>
 </file>
@@ -563,15 +563,15 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.54296875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.6328125" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -613,25 +613,25 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="29">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1650,12 +1650,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.6328125" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1692,7 +1692,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="29">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1817,7 +1817,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="29">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2813,12 +2813,12 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.90625" customWidth="1"/>
-    <col min="2" max="2" width="30.08984375" customWidth="1"/>
-    <col min="3" max="3" width="60.36328125" customWidth="1"/>
-    <col min="4" max="26" width="65.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.42578125" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/NAV_REFramwork/Data/Config.xlsx
+++ b/NAV_REFramwork/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REPO\VisualREPO\4-semester-gr6\NAV_REFramwork\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F076D639-2682-49D9-AA08-1CA1936FC59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C57CDC4-D262-4E19-88A0-6452C91DF340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,7 +174,7 @@
     <t>4th semester RPA project</t>
   </si>
   <si>
-    <t>IndsigtSletning</t>
+    <t>GetData</t>
   </si>
 </sst>
 </file>
